--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_9.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_24</t>
+          <t>model_12_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999971575896214</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6830240803505667</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999953450213266</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999939753486787</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999957349842182</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G2" t="n">
-        <v>1.687377586486879e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1881705985506676</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I2" t="n">
-        <v>4.234777842635443e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J2" t="n">
-        <v>6.30228848964018e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K2" t="n">
-        <v>5.268362503558187e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004564301286189857</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001298990987838976</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001515952202</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001354291723473324</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P2" t="n">
-        <v>164.5846699163442</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q2" t="n">
-        <v>248.68710183225</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_23</t>
+          <t>model_12_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999972021574767</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6830193169330248</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999954200721848</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999940702041412</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999958026472172</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G3" t="n">
-        <v>1.660920182380223e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1881734263210894</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I3" t="n">
-        <v>4.166501759363258e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J3" t="n">
-        <v>6.203061753118367e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K3" t="n">
-        <v>5.184781756240812e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004535719496468282</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00128876692321778</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001492182679</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001343632399254472</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P3" t="n">
-        <v>164.6162775648861</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q3" t="n">
-        <v>248.718709480792</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_22</t>
+          <t>model_12_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999972513698745</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.683014189154324</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999955039531734</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999941743088695</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999958776361833</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G4" t="n">
-        <v>1.631705577130889e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1881764703920348</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I4" t="n">
-        <v>4.090192633850599e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J4" t="n">
-        <v>6.094159512020478e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K4" t="n">
-        <v>5.092151604973544e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004503676759087794</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00127738231439569</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001465936067</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001331763124065437</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P4" t="n">
-        <v>164.6517694477346</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q4" t="n">
-        <v>248.7542013636404</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_21</t>
+          <t>model_12_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999973038651908</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6830083566458907</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999955927996431</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999942863612062</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999995957779263</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G5" t="n">
-        <v>1.600542089721963e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H5" t="n">
-        <v>0.188179932820992</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I5" t="n">
-        <v>4.009366256775482e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J5" t="n">
-        <v>5.976943408669324e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K5" t="n">
-        <v>4.993154832722403e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004469026226118181</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001265125325697799</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000001437938565</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001318984329983212</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P5" t="n">
-        <v>164.6903363600483</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q5" t="n">
-        <v>248.7927682759541</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_20</t>
+          <t>model_12_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999973621937768</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6830020104815018</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999956919711558</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999944108004352</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999960468090422</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56591572140884e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1881837001783133</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I6" t="n">
-        <v>3.919146869335743e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J6" t="n">
-        <v>5.846769581421313e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K6" t="n">
-        <v>4.883180761144006e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004430572304529688</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001251365542680811</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001406829986</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001304638764516513</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P6" t="n">
-        <v>164.734079559181</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q6" t="n">
-        <v>248.8365114750868</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_19</t>
+          <t>model_12_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999974265531916</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6829950829256359</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999958008186497</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999945491580228</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999961457865597</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G7" t="n">
-        <v>1.527709192587209e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1881878126747301</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I7" t="n">
-        <v>3.820124942958574e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J7" t="n">
-        <v>5.702035988558927e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K7" t="n">
-        <v>4.760918741806742e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004387671468336007</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001236005336795602</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001372504965</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001288624642866761</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P7" t="n">
-        <v>164.7834824086407</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q7" t="n">
-        <v>248.8859143245465</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_18</t>
+          <t>model_12_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999997496230099</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6829874979670619</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999959196892529</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999946987972816</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999962527899541</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G8" t="n">
-        <v>1.486345970439641e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1881923154337928</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I8" t="n">
-        <v>3.711984684541565e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J8" t="n">
-        <v>5.545500825108636e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K8" t="n">
-        <v>4.628742754825101e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004340281788555187</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001219157893974214</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001335343947</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001271059969525453</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P8" t="n">
-        <v>164.8383796376423</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q8" t="n">
-        <v>248.9408115535481</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_17</t>
+          <t>model_12_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999975733752303</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6829791154357125</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999960502433846</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999994866045777</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999963716828594</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G9" t="n">
-        <v>1.440549287988614e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1881972916665083</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I9" t="n">
-        <v>3.59321555960113e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J9" t="n">
-        <v>5.370544929541226e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K9" t="n">
-        <v>4.481880244571178e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004286147037612806</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001200228848173803</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000001294199877</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001251325075056791</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P9" t="n">
-        <v>164.9009721342356</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.0034040501415</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_16</t>
+          <t>model_12_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999997658583946</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6829699822615761</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999961948643706</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999950513056487</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999965033822593</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G10" t="n">
-        <v>1.389965713599483e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1882027135132082</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I10" t="n">
-        <v>3.46164938276319e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J10" t="n">
-        <v>5.176747630007017e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K10" t="n">
-        <v>4.319198506385103e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004225154517236392</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001178968071492813</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000001248755229</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001229159183096617</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P10" t="n">
-        <v>164.9724629552022</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q10" t="n">
-        <v>249.074894871108</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_15</t>
+          <t>model_12_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999977497641737</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6829600134249189</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999963493227925</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999952514814433</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999966450200168</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G11" t="n">
-        <v>1.335837191634537e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1882086314452793</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I11" t="n">
-        <v>3.321133786759858e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J11" t="n">
-        <v>4.967347029217561e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K11" t="n">
-        <v>4.144240407988708e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004158939018866014</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001155784232300535</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000001200125774</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00120498835987276</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P11" t="n">
-        <v>165.0519047056493</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.1543366215552</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_14</t>
+          <t>model_12_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999978500709905</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6829493008133398</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999965209075857</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999954714646605</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999968013513971</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276290732157199e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1882149909142734</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I12" t="n">
-        <v>3.165037801922149e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J12" t="n">
-        <v>4.737226210018165e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K12" t="n">
-        <v>3.951132005970157e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004084683935178773</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001129730380293103</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000001146628805</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001177825341446463</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P12" t="n">
-        <v>165.1431051049532</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.245537020859</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_13</t>
+          <t>model_12_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999979576513732</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6829377242970154</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999967042524083</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999957102872101</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999996969831523</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G13" t="n">
-        <v>1.212426369697535e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H13" t="n">
-        <v>0.188221863234443</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I13" t="n">
-        <v>2.998243355279355e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J13" t="n">
-        <v>4.487397875519846e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K13" t="n">
-        <v>3.743016861083855e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004001949718827564</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001101102342971594</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000001089252601</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001147978549307971</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P13" t="n">
-        <v>165.2457738840027</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q13" t="n">
-        <v>249.3482057999085</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999980748845677</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6829253809716862</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999996903972775</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999959732274545</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999971547601989</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G14" t="n">
-        <v>1.142831681290839e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1882291907655623</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I14" t="n">
-        <v>2.816551570441592e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J14" t="n">
-        <v>4.212340417893338e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K14" t="n">
-        <v>3.514583637826159e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003908846573815508</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001069033059026165</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000001026728231</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001114544009552415</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P14" t="n">
-        <v>165.3640028889169</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q14" t="n">
-        <v>249.4664348048227</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_11</t>
+          <t>model_12_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999998199178684</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6829119785636478</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999971175717082</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999962538275937</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999973523411957</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G15" t="n">
-        <v>1.069045324602484e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1882371470139277</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I15" t="n">
-        <v>2.622234025042278e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J15" t="n">
-        <v>3.918809235179196e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K15" t="n">
-        <v>3.270521630110737e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003806511931632924</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001033946480531021</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000960438035</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001077963722771502</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P15" t="n">
-        <v>165.4974890555066</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q15" t="n">
-        <v>249.5999209714125</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_10</t>
+          <t>model_12_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999983307591173</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6828978623480626</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999973445429492</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999965546206186</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999975632852153</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G16" t="n">
-        <v>9.909334954431884e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1882455270092879</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I16" t="n">
-        <v>2.415751278277313e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J16" t="n">
-        <v>3.604154607381578e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K16" t="n">
-        <v>3.009952942829445e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003694218431582166</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000995456425687829</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000890261804</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001037835066608238</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P16" t="n">
-        <v>165.6492368268038</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q16" t="n">
-        <v>249.7516687427097</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_9</t>
+          <t>model_12_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999998470551542</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6828826766091831</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999975856291915</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999968797910804</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999977897490385</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G17" t="n">
-        <v>9.079466733706919e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1882545419198766</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I17" t="n">
-        <v>2.196427679027003e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J17" t="n">
-        <v>3.263999144609201e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K17" t="n">
-        <v>2.730213411818102e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003566280106813023</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009528623580405996</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000815705844</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0009934276813193912</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P17" t="n">
-        <v>165.8241603796755</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.9265922955813</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_8</t>
+          <t>model_12_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999986169555773</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6828667311467813</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999978399977467</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999972260803868</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999980300462534</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G18" t="n">
-        <v>8.210349137045276e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1882640078351664</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I18" t="n">
-        <v>1.965020749617933e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J18" t="n">
-        <v>2.901751606397114e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K18" t="n">
-        <v>2.433386178007523e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000342391687978265</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0009061097691254231</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000737623692</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0009446847379028945</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P18" t="n">
-        <v>166.025400405141</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1278323210468</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_7</t>
+          <t>model_12_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999987630838929</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6828498338253578</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999998097863962</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999975795932036</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999982746900868</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G19" t="n">
-        <v>7.342868331453824e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1882740388150896</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I19" t="n">
-        <v>1.730431890755142e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J19" t="n">
-        <v>2.531947672947162e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K19" t="n">
-        <v>2.131189781851152e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003271199305981413</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0008569053816760532</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00000065968859</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0008933856178126812</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P19" t="n">
-        <v>166.2487322076296</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.3511641235355</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_6</t>
+          <t>model_12_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999998915777142</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6828326476816591</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999983685385383</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999979594070474</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999985351870753</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G20" t="n">
-        <v>6.436415245310675e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1882842412523919</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I20" t="n">
-        <v>1.48419087045012e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J20" t="n">
-        <v>2.134630668468847e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K20" t="n">
-        <v>1.809410769459483e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003094702042500538</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0008022727245339127</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000578252191</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0008364271353508088</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P20" t="n">
-        <v>166.5122478094999</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.6146797254057</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_5</t>
+          <t>model_12_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999990643461031</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C21" t="n">
-        <v>0.682814843140882</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999986366636342</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999983437171267</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999987966490894</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G21" t="n">
-        <v>5.554445713559132e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1882948107969133</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I21" t="n">
-        <v>1.240269191146938e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J21" t="n">
-        <v>1.732610226168246e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K21" t="n">
-        <v>1.486439708657592e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002898415292886507</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0007452815383168385</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000000499015412</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0007770097163484545</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P21" t="n">
-        <v>166.8069940287655</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.9094259446713</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_4</t>
+          <t>model_12_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999992070559115</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6827970289992558</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999989005282086</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999998732715047</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999990585271914</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G22" t="n">
-        <v>4.707258643065656e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1883053860409135</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I22" t="n">
-        <v>1.000223439750966e-06</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J22" t="n">
-        <v>1.325685910446517e-06</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K22" t="n">
-        <v>1.162954675098742e-06</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002675658348314445</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0006860946467555082</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000422903514</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0007153031162796024</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P22" t="n">
-        <v>167.1379798828955</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.2404117988014</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_3</t>
+          <t>model_12_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999993311209806</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6827783085802711</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999991436174065</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999990997168748</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999993032898826</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G23" t="n">
-        <v>3.970754800144807e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1883164992903028</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I23" t="n">
-        <v>7.790776900031719e-07</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J23" t="n">
-        <v>9.417713448274229e-07</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K23" t="n">
-        <v>8.606114598513817e-07</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002431701083708391</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0006301392544624407</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000356735477</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0006569655870929888</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P23" t="n">
-        <v>167.4782788966996</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.5807108126055</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_2</t>
+          <t>model_12_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999994319027933</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6827604951441348</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999993596055128</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999994401959875</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999995271451104</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G24" t="n">
-        <v>3.372470424574652e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1883270741154937</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I24" t="n">
-        <v>5.825866401194352e-07</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J24" t="n">
-        <v>5.856017545985916e-07</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K24" t="n">
-        <v>5.840941973590134e-07</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000215789586086367</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0005807297499331899</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000302985177</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0006054526176641531</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P24" t="n">
-        <v>167.804900222964</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.9073321388698</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_1</t>
+          <t>model_12_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999994937942677</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6827430640051877</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999995294835741</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999997235892794</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999999709724583</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G25" t="n">
-        <v>3.005055896617352e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1883374219925587</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I25" t="n">
-        <v>4.28043322014331e-07</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J25" t="n">
-        <v>2.891487009253386e-07</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K25" t="n">
-        <v>3.585628286743275e-07</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001855970235549758</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0005481839013157311</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000269976391</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0005715212248918548</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P25" t="n">
-        <v>168.0355989638807</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q25" t="n">
-        <v>252.1380308797866</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_0</t>
+          <t>model_12_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999995023545226</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6827272699455693</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999996347417333</v>
+        <v>0.5780077333516115</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999235768552</v>
+        <v>-0.5379569118765228</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999998331384014</v>
+        <v>0.210832136944582</v>
       </c>
       <c r="G26" t="n">
-        <v>2.954238525421119e-07</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H26" t="n">
-        <v>0.188346798028616</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I26" t="n">
-        <v>3.32286724283418e-07</v>
+        <v>0.1221825844847669</v>
       </c>
       <c r="J26" t="n">
-        <v>7.994499274707948e-08</v>
+        <v>0.3496404292052329</v>
       </c>
       <c r="K26" t="n">
-        <v>2.061158585152487e-07</v>
+        <v>0.2359115068449999</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001521987191409359</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000543529072398259</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000265410921</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0005666682302705418</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P26" t="n">
-        <v>168.0697094470418</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q26" t="n">
-        <v>252.1721413629477</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
   </sheetData>
